--- a/note.xlsx
+++ b/note.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="990">
   <si>
     <t>ORDER</t>
   </si>
@@ -1202,6 +1202,9 @@
     <t>chronological</t>
   </si>
   <si>
+    <t>(of a record of events) following the order in which they occurred.</t>
+  </si>
+  <si>
     <t>chronologically</t>
   </si>
   <si>
@@ -1307,6 +1310,9 @@
     <t>se</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>ad</t>
   </si>
   <si>
@@ -1343,6 +1349,9 @@
     <t>nescience</t>
   </si>
   <si>
+    <t>很会说但是都是废话</t>
+  </si>
+  <si>
     <t>glibness</t>
   </si>
   <si>
@@ -1352,9 +1361,15 @@
     <t>gregarious</t>
   </si>
   <si>
+    <t>合群的，群居的</t>
+  </si>
+  <si>
     <t>segregate</t>
   </si>
   <si>
+    <t>set apart from the rest or from each other; isolate or divide.</t>
+  </si>
+  <si>
     <t>aggregate</t>
   </si>
   <si>
@@ -1377,6 +1392,9 @@
   </si>
   <si>
     <t>disparage</t>
+  </si>
+  <si>
+    <t>贬损，瞧不起</t>
   </si>
   <si>
     <t>disparagement</t>
@@ -2985,7 +3003,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3014,19 +3032,47 @@
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
       <name val="Yu Gothic UI Semibold"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3040,9 +3086,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3056,31 +3102,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3088,29 +3120,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3132,7 +3141,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3140,7 +3149,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3148,7 +3157,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3171,19 +3195,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3201,19 +3237,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3225,19 +3351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3249,109 +3369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3389,24 +3413,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3422,21 +3442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3459,8 +3464,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3468,19 +3488,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3492,10 +3516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3504,137 +3528,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3659,7 +3683,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3984,9 +4011,9 @@
   <dimension ref="A1:F957"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P374" sqref="P374"/>
+      <selection pane="bottomLeft" activeCell="E440" sqref="E440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="17.25" outlineLevelCol="5"/>
@@ -3996,7 +4023,7 @@
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34" style="2" customWidth="1"/>
+    <col min="6" max="6" width="61.625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
@@ -8708,7 +8735,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:6">
       <c r="A374" s="3">
         <v>373</v>
       </c>
@@ -8716,8 +8743,11 @@
         <v>16</v>
       </c>
       <c r="C374" s="4"/>
-      <c r="E374" s="3" t="s">
+      <c r="E374" s="5" t="s">
         <v>392</v>
+      </c>
+      <c r="F374" s="8" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -8728,8 +8758,8 @@
         <v>16</v>
       </c>
       <c r="C375"/>
-      <c r="E375" s="3" t="s">
-        <v>393</v>
+      <c r="E375" s="5" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -8741,7 +8771,7 @@
       </c>
       <c r="C376"/>
       <c r="E376" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -8753,7 +8783,7 @@
       </c>
       <c r="C377"/>
       <c r="E377" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -8765,7 +8795,7 @@
       </c>
       <c r="C378" s="4"/>
       <c r="E378" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -8778,7 +8808,7 @@
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -8790,7 +8820,7 @@
       </c>
       <c r="C380" s="4"/>
       <c r="E380" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8803,7 +8833,7 @@
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8815,7 +8845,7 @@
       </c>
       <c r="C382" s="4"/>
       <c r="E382" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8840,7 +8870,7 @@
       </c>
       <c r="C384" s="4"/>
       <c r="E384" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8853,7 +8883,7 @@
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8866,7 +8896,7 @@
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8878,7 +8908,7 @@
       </c>
       <c r="C387" s="4"/>
       <c r="E387" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8890,7 +8920,7 @@
       </c>
       <c r="C388" s="4"/>
       <c r="E388" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8902,7 +8932,7 @@
       </c>
       <c r="C389" s="4"/>
       <c r="E389" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8914,7 +8944,7 @@
       </c>
       <c r="C390"/>
       <c r="E390" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8927,7 +8957,7 @@
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8939,7 +8969,7 @@
       </c>
       <c r="C392" s="4"/>
       <c r="E392" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8951,7 +8981,7 @@
       </c>
       <c r="C393"/>
       <c r="E393" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -8964,7 +8994,7 @@
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -8977,7 +9007,7 @@
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -8990,7 +9020,7 @@
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9002,7 +9032,7 @@
       </c>
       <c r="C397" s="4"/>
       <c r="E397" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9015,7 +9045,7 @@
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9027,7 +9057,7 @@
       </c>
       <c r="C399" s="4"/>
       <c r="E399" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9038,10 +9068,10 @@
         <v>17</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E400" s="3"/>
     </row>
@@ -9053,10 +9083,10 @@
         <v>17</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E401" s="3"/>
     </row>
@@ -9068,10 +9098,10 @@
         <v>17</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E402" s="3"/>
     </row>
@@ -9083,7 +9113,7 @@
         <v>17</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E403" s="3"/>
     </row>
@@ -9095,7 +9125,7 @@
         <v>17</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E404" s="3"/>
     </row>
@@ -9107,7 +9137,7 @@
         <v>17</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E405" s="3"/>
     </row>
@@ -9119,7 +9149,7 @@
         <v>17</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>121</v>
@@ -9134,7 +9164,7 @@
         <v>17</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="3"/>
@@ -9147,7 +9177,7 @@
         <v>17</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408" s="3"/>
@@ -9160,7 +9190,10 @@
         <v>17</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="E409" s="3"/>
     </row>
@@ -9172,10 +9205,10 @@
         <v>17</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E410" s="3"/>
     </row>
@@ -9187,10 +9220,10 @@
         <v>17</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E411" s="3"/>
     </row>
@@ -9203,7 +9236,7 @@
       </c>
       <c r="C412" s="4"/>
       <c r="E412" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -9227,7 +9260,7 @@
       </c>
       <c r="C414" s="4"/>
       <c r="E414" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -9239,7 +9272,7 @@
       </c>
       <c r="C415" s="4"/>
       <c r="E415" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -9252,7 +9285,7 @@
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -9265,7 +9298,7 @@
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -9278,7 +9311,7 @@
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -9290,8 +9323,8 @@
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
-      <c r="E419" s="3" t="s">
-        <v>438</v>
+      <c r="E419" s="5" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -9303,11 +9336,11 @@
       </c>
       <c r="C420" s="4"/>
       <c r="D420"/>
-      <c r="E420" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+      <c r="E420" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
       <c r="A421" s="3">
         <v>420</v>
       </c>
@@ -9316,8 +9349,11 @@
       </c>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
-      <c r="E421" s="3" t="s">
-        <v>423</v>
+      <c r="E421" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -9329,11 +9365,11 @@
       </c>
       <c r="C422" s="4"/>
       <c r="D422"/>
-      <c r="E422" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+      <c r="E422" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
       <c r="A423" s="3">
         <v>422</v>
       </c>
@@ -9341,8 +9377,11 @@
         <v>17</v>
       </c>
       <c r="C423" s="4"/>
-      <c r="E423" s="3" t="s">
+      <c r="E423" s="5" t="s">
         <v>337</v>
+      </c>
+      <c r="F423" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -9353,11 +9392,11 @@
         <v>17</v>
       </c>
       <c r="C424" s="4"/>
-      <c r="E424" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+      <c r="E424" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
       <c r="A425" s="3">
         <v>424</v>
       </c>
@@ -9365,11 +9404,14 @@
         <v>17</v>
       </c>
       <c r="C425" s="4"/>
-      <c r="E425" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+      <c r="E425" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
       <c r="A426" s="3">
         <v>425</v>
       </c>
@@ -9378,8 +9420,11 @@
       </c>
       <c r="C426"/>
       <c r="D426"/>
-      <c r="E426" s="3" t="s">
-        <v>443</v>
+      <c r="E426" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -9391,7 +9436,7 @@
       </c>
       <c r="C427"/>
       <c r="E427" s="3" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -9403,7 +9448,7 @@
       </c>
       <c r="C428"/>
       <c r="E428" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -9424,7 +9469,7 @@
         <v>20</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E430" s="3"/>
     </row>
@@ -9436,7 +9481,7 @@
         <v>20</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E431" s="3"/>
     </row>
@@ -9460,7 +9505,7 @@
         <v>20</v>
       </c>
       <c r="E433" s="3" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -9473,7 +9518,7 @@
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="3" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -9484,10 +9529,10 @@
         <v>20</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
       <c r="A436" s="3">
         <v>435</v>
       </c>
@@ -9495,8 +9540,11 @@
         <v>20</v>
       </c>
       <c r="C436"/>
-      <c r="E436" s="3" t="s">
-        <v>451</v>
+      <c r="E436" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -9507,8 +9555,8 @@
         <v>20</v>
       </c>
       <c r="C437"/>
-      <c r="E437" s="3" t="s">
-        <v>452</v>
+      <c r="E437" s="5" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -9519,7 +9567,7 @@
         <v>20</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -9532,7 +9580,7 @@
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439" s="3" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -9543,7 +9591,7 @@
         <v>20</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -9555,7 +9603,7 @@
       </c>
       <c r="C441"/>
       <c r="E441" s="3" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -9566,7 +9614,7 @@
         <v>20</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -9577,7 +9625,7 @@
         <v>20</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -9589,7 +9637,7 @@
       </c>
       <c r="C444" s="4"/>
       <c r="E444" s="3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -9601,7 +9649,7 @@
       </c>
       <c r="C445" s="4"/>
       <c r="E445" s="3" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -9613,7 +9661,7 @@
       </c>
       <c r="C446" s="4"/>
       <c r="E446" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -9626,7 +9674,7 @@
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -9639,7 +9687,7 @@
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="3" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -9651,7 +9699,7 @@
       </c>
       <c r="C449"/>
       <c r="E449" s="3" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -9663,7 +9711,7 @@
       </c>
       <c r="C450"/>
       <c r="E450" s="3" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -9674,7 +9722,7 @@
         <v>21</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E451" s="3"/>
     </row>
@@ -9686,7 +9734,7 @@
         <v>21</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E452" s="3"/>
     </row>
@@ -9698,10 +9746,10 @@
         <v>21</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E453" s="3"/>
     </row>
@@ -9713,7 +9761,7 @@
         <v>21</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D454" s="4"/>
       <c r="E454" s="3"/>
@@ -9726,10 +9774,10 @@
         <v>21</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E455" s="3"/>
     </row>
@@ -9741,7 +9789,7 @@
         <v>21</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D456" s="4"/>
       <c r="E456" s="3"/>
@@ -9754,7 +9802,7 @@
         <v>21</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E457" s="3"/>
     </row>
@@ -9766,7 +9814,7 @@
         <v>21</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E458" s="3"/>
     </row>
@@ -9778,7 +9826,7 @@
         <v>21</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E459" s="3"/>
     </row>
@@ -9791,7 +9839,7 @@
       </c>
       <c r="C460"/>
       <c r="E460" s="3" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -9803,7 +9851,7 @@
       </c>
       <c r="C461" s="4"/>
       <c r="E461" s="3" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -9815,7 +9863,7 @@
       </c>
       <c r="C462"/>
       <c r="E462" s="3" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -9828,7 +9876,7 @@
       <c r="C463" s="4"/>
       <c r="D463"/>
       <c r="E463" s="3" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -9840,7 +9888,7 @@
       </c>
       <c r="C464" s="4"/>
       <c r="E464" s="3" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -9852,7 +9900,7 @@
       </c>
       <c r="C465" s="4"/>
       <c r="E465" s="3" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -9864,7 +9912,7 @@
       </c>
       <c r="C466" s="4"/>
       <c r="E466" s="3" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -9877,7 +9925,7 @@
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="3" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -9889,7 +9937,7 @@
       </c>
       <c r="C468" s="4"/>
       <c r="E468" s="3" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -9901,7 +9949,7 @@
       </c>
       <c r="C469" s="4"/>
       <c r="E469" s="3" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -9914,7 +9962,7 @@
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="3" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -9926,7 +9974,7 @@
       </c>
       <c r="C471" s="4"/>
       <c r="E471" s="3" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -9939,7 +9987,7 @@
       <c r="C472" s="4"/>
       <c r="D472"/>
       <c r="E472" s="3" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -9951,7 +9999,7 @@
       </c>
       <c r="C473" s="4"/>
       <c r="E473" s="3" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -9963,7 +10011,7 @@
       </c>
       <c r="C474" s="4"/>
       <c r="E474" s="3" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -9975,7 +10023,7 @@
       </c>
       <c r="C475" s="4"/>
       <c r="E475" s="3" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -9987,7 +10035,7 @@
       </c>
       <c r="C476"/>
       <c r="E476" s="3" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -10000,7 +10048,7 @@
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -10012,7 +10060,7 @@
       </c>
       <c r="C478"/>
       <c r="E478" s="3" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -10024,7 +10072,7 @@
       </c>
       <c r="C479"/>
       <c r="E479" s="3" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -10036,7 +10084,7 @@
       </c>
       <c r="C480"/>
       <c r="E480" s="3" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -10048,7 +10096,7 @@
       </c>
       <c r="C481"/>
       <c r="E481" s="3" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -10060,7 +10108,7 @@
       </c>
       <c r="C482"/>
       <c r="E482" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -10072,7 +10120,7 @@
       </c>
       <c r="C483"/>
       <c r="E483" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -10084,7 +10132,7 @@
       </c>
       <c r="C484"/>
       <c r="E484" s="3" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -10096,7 +10144,7 @@
       </c>
       <c r="C485" s="4"/>
       <c r="E485" s="3" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -10108,7 +10156,7 @@
       </c>
       <c r="C486" s="4"/>
       <c r="E486" s="3" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -10120,7 +10168,7 @@
       </c>
       <c r="C487" s="4"/>
       <c r="E487" s="3" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -10131,10 +10179,10 @@
         <v>22</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E488" s="3"/>
     </row>
@@ -10146,7 +10194,7 @@
         <v>22</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="E489" s="3"/>
     </row>
@@ -10158,7 +10206,7 @@
         <v>22</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="E490" s="3"/>
     </row>
@@ -10170,7 +10218,7 @@
         <v>22</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="E491" s="3"/>
     </row>
@@ -10194,7 +10242,7 @@
         <v>22</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="E493" s="3"/>
     </row>
@@ -10218,10 +10266,10 @@
         <v>22</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="E495" s="3"/>
     </row>
@@ -10233,10 +10281,10 @@
         <v>22</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="E496" s="3"/>
     </row>
@@ -10248,10 +10296,10 @@
         <v>22</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E497" s="3"/>
     </row>
@@ -10263,10 +10311,10 @@
         <v>22</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="E498" s="3"/>
     </row>
@@ -10290,10 +10338,10 @@
         <v>22</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="E500" s="3"/>
     </row>
@@ -10305,7 +10353,7 @@
         <v>22</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D501" s="4"/>
       <c r="E501" s="3"/>
@@ -10330,7 +10378,7 @@
         <v>22</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E503" s="3"/>
     </row>
@@ -10342,7 +10390,7 @@
         <v>22</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E504" s="3"/>
     </row>
@@ -10354,7 +10402,7 @@
         <v>22</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="E505" s="3"/>
     </row>
@@ -10366,7 +10414,7 @@
         <v>22</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D506" s="4"/>
       <c r="E506" s="3"/>
@@ -10379,7 +10427,7 @@
         <v>22</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D507" s="4"/>
       <c r="E507" s="3"/>
@@ -10392,7 +10440,7 @@
         <v>22</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D508" s="4"/>
       <c r="E508" s="3"/>
@@ -10405,7 +10453,7 @@
         <v>22</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E509" s="3"/>
     </row>
@@ -10417,7 +10465,7 @@
         <v>22</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E510" s="3"/>
     </row>
@@ -10429,7 +10477,7 @@
         <v>22</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="E511" s="3"/>
     </row>
@@ -10443,7 +10491,7 @@
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="3" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -10455,7 +10503,7 @@
       </c>
       <c r="C513" s="4"/>
       <c r="E513" s="3" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -10467,7 +10515,7 @@
       </c>
       <c r="C514"/>
       <c r="E514" s="3" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -10479,7 +10527,7 @@
       </c>
       <c r="C515"/>
       <c r="E515" s="3" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -10491,7 +10539,7 @@
       </c>
       <c r="C516" s="4"/>
       <c r="E516" s="3" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -10503,7 +10551,7 @@
       </c>
       <c r="C517" s="4"/>
       <c r="E517" s="3" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -10514,7 +10562,7 @@
         <v>22</v>
       </c>
       <c r="E518" s="3" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -10526,7 +10574,7 @@
       </c>
       <c r="C519" s="4"/>
       <c r="E519" s="3" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -10538,7 +10586,7 @@
       </c>
       <c r="C520" s="4"/>
       <c r="E520" s="3" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -10550,7 +10598,7 @@
       </c>
       <c r="C521" s="4"/>
       <c r="E521" s="3" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -10562,7 +10610,7 @@
       </c>
       <c r="C522" s="4"/>
       <c r="E522" s="3" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -10574,7 +10622,7 @@
       </c>
       <c r="C523" s="4"/>
       <c r="E523" s="3" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -10587,7 +10635,7 @@
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="3" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -10600,7 +10648,7 @@
       <c r="C525" s="4"/>
       <c r="D525"/>
       <c r="E525" s="3" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -10611,7 +10659,7 @@
         <v>22</v>
       </c>
       <c r="E526" s="3" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -10624,7 +10672,7 @@
       <c r="C527"/>
       <c r="D527"/>
       <c r="E527" s="3" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -10637,7 +10685,7 @@
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="3" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -10649,7 +10697,7 @@
       </c>
       <c r="C529" s="4"/>
       <c r="E529" s="3" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -10662,7 +10710,7 @@
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="3" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -10674,7 +10722,7 @@
       </c>
       <c r="C531"/>
       <c r="E531" s="3" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -10687,7 +10735,7 @@
       <c r="C532"/>
       <c r="D532"/>
       <c r="E532" s="3" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -10700,7 +10748,7 @@
       <c r="C533"/>
       <c r="D533"/>
       <c r="E533" s="3" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -10713,7 +10761,7 @@
       <c r="C534"/>
       <c r="D534"/>
       <c r="E534" s="3" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -10724,7 +10772,7 @@
         <v>22</v>
       </c>
       <c r="E535" s="3" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -10736,7 +10784,7 @@
       </c>
       <c r="C536"/>
       <c r="E536" s="3" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -10747,7 +10795,7 @@
         <v>22</v>
       </c>
       <c r="E537" s="3" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -10760,7 +10808,7 @@
       <c r="C538"/>
       <c r="D538"/>
       <c r="E538" s="3" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -10771,7 +10819,7 @@
         <v>22</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -10782,7 +10830,7 @@
         <v>22</v>
       </c>
       <c r="E540" s="3" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -10794,7 +10842,7 @@
       </c>
       <c r="C541" s="4"/>
       <c r="E541" s="3" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -10805,7 +10853,7 @@
         <v>22</v>
       </c>
       <c r="E542" s="3" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -10816,7 +10864,7 @@
         <v>22</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -10827,7 +10875,7 @@
         <v>22</v>
       </c>
       <c r="E544" s="3" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -10839,7 +10887,7 @@
       </c>
       <c r="C545"/>
       <c r="E545" s="3" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -10851,7 +10899,7 @@
       </c>
       <c r="C546"/>
       <c r="E546" s="3" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -10863,7 +10911,7 @@
       </c>
       <c r="C547"/>
       <c r="E547" s="3" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -10875,7 +10923,7 @@
       </c>
       <c r="C548"/>
       <c r="E548" s="3" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -10887,7 +10935,7 @@
       </c>
       <c r="C549" s="4"/>
       <c r="E549" s="3" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -10899,7 +10947,7 @@
       </c>
       <c r="C550" s="4"/>
       <c r="E550" s="3" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -10911,7 +10959,7 @@
       </c>
       <c r="C551" s="4"/>
       <c r="E551" s="3" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -10924,7 +10972,7 @@
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="3" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -10937,7 +10985,7 @@
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="3" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -10950,7 +10998,7 @@
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="3" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -10963,7 +11011,7 @@
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="3" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -10976,7 +11024,7 @@
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="3" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -10989,7 +11037,7 @@
       <c r="C557" s="4"/>
       <c r="D557"/>
       <c r="E557" s="3" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -11001,7 +11049,7 @@
       </c>
       <c r="C558" s="4"/>
       <c r="E558" s="3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -11013,7 +11061,7 @@
       </c>
       <c r="C559" s="4"/>
       <c r="E559" s="3" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -11025,7 +11073,7 @@
       </c>
       <c r="C560" s="4"/>
       <c r="E560" s="3" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -11036,7 +11084,7 @@
         <v>23</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E561" s="3"/>
     </row>
@@ -11048,7 +11096,7 @@
         <v>23</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="E562" s="3"/>
     </row>
@@ -11060,7 +11108,7 @@
         <v>23</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D563" s="4"/>
       <c r="E563" s="3"/>
@@ -11073,7 +11121,7 @@
         <v>23</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D564" s="4"/>
       <c r="E564" s="3"/>
@@ -11086,7 +11134,7 @@
         <v>23</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E565" s="3"/>
     </row>
@@ -11098,7 +11146,7 @@
         <v>23</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="E566" s="3"/>
     </row>
@@ -11110,7 +11158,7 @@
         <v>23</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="E567" s="3"/>
     </row>
@@ -11122,10 +11170,10 @@
         <v>23</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E568" s="3"/>
     </row>
@@ -11137,10 +11185,10 @@
         <v>23</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="E569" s="3"/>
     </row>
@@ -11152,7 +11200,7 @@
         <v>23</v>
       </c>
       <c r="E570" s="3" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -11164,7 +11212,7 @@
       </c>
       <c r="C571"/>
       <c r="E571" s="3" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -11175,7 +11223,7 @@
         <v>23</v>
       </c>
       <c r="E572" s="3" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -11187,7 +11235,7 @@
       </c>
       <c r="C573"/>
       <c r="E573" s="3" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -11200,7 +11248,7 @@
       <c r="C574"/>
       <c r="D574"/>
       <c r="E574" s="3" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -11211,7 +11259,7 @@
         <v>23</v>
       </c>
       <c r="E575" s="3" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -11222,7 +11270,7 @@
         <v>23</v>
       </c>
       <c r="E576" s="3" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -11234,7 +11282,7 @@
       </c>
       <c r="C577"/>
       <c r="E577" s="3" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -11246,7 +11294,7 @@
       </c>
       <c r="C578" s="4"/>
       <c r="E578" s="3" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -11258,7 +11306,7 @@
       </c>
       <c r="C579" s="4"/>
       <c r="E579" s="3" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -11270,7 +11318,7 @@
       </c>
       <c r="C580" s="4"/>
       <c r="E580" s="3" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -11282,7 +11330,7 @@
       </c>
       <c r="C581" s="4"/>
       <c r="E581" s="3" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -11295,7 +11343,7 @@
       <c r="C582"/>
       <c r="D582"/>
       <c r="E582" s="3" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -11307,7 +11355,7 @@
       </c>
       <c r="C583"/>
       <c r="E583" s="3" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -11320,7 +11368,7 @@
       <c r="C584"/>
       <c r="D584"/>
       <c r="E584" s="3" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -11332,7 +11380,7 @@
       </c>
       <c r="C585" s="4"/>
       <c r="E585" s="3" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -11344,7 +11392,7 @@
       </c>
       <c r="C586" s="4"/>
       <c r="E586" s="3" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -11356,7 +11404,7 @@
       </c>
       <c r="C587" s="4"/>
       <c r="E587" s="3" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -11368,7 +11416,7 @@
       </c>
       <c r="C588" s="4"/>
       <c r="E588" s="3" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -11380,7 +11428,7 @@
       </c>
       <c r="C589" s="4"/>
       <c r="E589" s="3" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -11392,7 +11440,7 @@
       </c>
       <c r="C590" s="4"/>
       <c r="E590" s="3" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -11405,7 +11453,7 @@
       <c r="C591" s="4"/>
       <c r="D591"/>
       <c r="E591" s="3" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -11418,7 +11466,7 @@
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="E592" s="3" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -11429,7 +11477,7 @@
         <v>23</v>
       </c>
       <c r="E593" s="3" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -11442,7 +11490,7 @@
       <c r="C594"/>
       <c r="D594"/>
       <c r="E594" s="3" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -11454,7 +11502,7 @@
       </c>
       <c r="C595" s="4"/>
       <c r="E595" s="3" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -11466,7 +11514,7 @@
       </c>
       <c r="C596" s="4"/>
       <c r="E596" s="3" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -11477,7 +11525,7 @@
         <v>23</v>
       </c>
       <c r="E597" s="3" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -11488,7 +11536,7 @@
         <v>23</v>
       </c>
       <c r="E598" s="3" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -11500,7 +11548,7 @@
       </c>
       <c r="C599" s="4"/>
       <c r="E599" s="3" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -11512,7 +11560,7 @@
       </c>
       <c r="C600" s="4"/>
       <c r="E600" s="3" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -11525,7 +11573,7 @@
       <c r="C601" s="4"/>
       <c r="D601"/>
       <c r="E601" s="3" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -11537,7 +11585,7 @@
       </c>
       <c r="C602"/>
       <c r="E602" s="3" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -11548,7 +11596,7 @@
         <v>23</v>
       </c>
       <c r="E603" s="3" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -11559,7 +11607,7 @@
         <v>23</v>
       </c>
       <c r="E604" s="3" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -11571,7 +11619,7 @@
       </c>
       <c r="C605"/>
       <c r="E605" s="3" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -11583,7 +11631,7 @@
       </c>
       <c r="C606" s="4"/>
       <c r="E606" s="3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -11596,7 +11644,7 @@
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="E607" s="3" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -11608,7 +11656,7 @@
       </c>
       <c r="C608" s="4"/>
       <c r="E608" s="3" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -11621,7 +11669,7 @@
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="E609" s="3" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -11634,7 +11682,7 @@
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="3" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -11646,7 +11694,7 @@
       </c>
       <c r="C611" s="4"/>
       <c r="E611" s="3" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -11659,7 +11707,7 @@
       <c r="C612" s="4"/>
       <c r="D612"/>
       <c r="E612" s="3" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -11672,7 +11720,7 @@
       <c r="C613" s="4"/>
       <c r="D613"/>
       <c r="E613" s="3" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -11684,7 +11732,7 @@
       </c>
       <c r="C614" s="4"/>
       <c r="E614" s="3" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -11695,7 +11743,7 @@
         <v>23</v>
       </c>
       <c r="E615" s="3" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -11706,7 +11754,7 @@
         <v>23</v>
       </c>
       <c r="E616" s="3" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -11719,7 +11767,7 @@
       <c r="C617"/>
       <c r="D617"/>
       <c r="E617" s="3" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -11731,7 +11779,7 @@
       </c>
       <c r="C618"/>
       <c r="E618" s="3" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -11742,7 +11790,7 @@
         <v>23</v>
       </c>
       <c r="E619" s="3" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -11753,7 +11801,7 @@
         <v>23</v>
       </c>
       <c r="E620" s="3" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -11765,7 +11813,7 @@
       </c>
       <c r="C621" s="4"/>
       <c r="E621" s="3" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -11777,7 +11825,7 @@
       </c>
       <c r="C622" s="4"/>
       <c r="E622" s="3" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -11790,7 +11838,7 @@
       <c r="C623" s="4"/>
       <c r="D623"/>
       <c r="E623" s="3" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -11803,7 +11851,7 @@
       <c r="C624" s="4"/>
       <c r="D624"/>
       <c r="E624" s="3" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -11815,7 +11863,7 @@
       </c>
       <c r="C625"/>
       <c r="E625" s="3" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -11826,10 +11874,10 @@
         <v>25</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="E626" s="3"/>
     </row>
@@ -11841,7 +11889,7 @@
         <v>25</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="E627" s="3"/>
     </row>
@@ -11853,7 +11901,7 @@
         <v>25</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="E628" s="3"/>
     </row>
@@ -11865,7 +11913,7 @@
         <v>25</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="E629" s="3"/>
     </row>
@@ -11877,7 +11925,7 @@
         <v>25</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="E630" s="3"/>
     </row>
@@ -11889,10 +11937,10 @@
         <v>25</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="E631" s="3"/>
     </row>
@@ -11916,10 +11964,10 @@
         <v>25</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="E633" s="3"/>
     </row>
@@ -11934,7 +11982,7 @@
         <v>345</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="E634" s="3"/>
     </row>
@@ -11946,10 +11994,10 @@
         <v>25</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E635" s="3"/>
     </row>
@@ -11961,10 +12009,10 @@
         <v>25</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="E636" s="3"/>
     </row>
@@ -11977,7 +12025,7 @@
       </c>
       <c r="C637" s="4"/>
       <c r="E637" s="3" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -11989,7 +12037,7 @@
       </c>
       <c r="C638" s="4"/>
       <c r="E638" s="3" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -12001,7 +12049,7 @@
       </c>
       <c r="C639"/>
       <c r="E639" s="3" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -12013,7 +12061,7 @@
       </c>
       <c r="C640" s="4"/>
       <c r="E640" s="3" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -12025,7 +12073,7 @@
       </c>
       <c r="C641" s="4"/>
       <c r="E641" s="3" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -12037,7 +12085,7 @@
       </c>
       <c r="C642" s="4"/>
       <c r="E642" s="3" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -12050,7 +12098,7 @@
       <c r="C643" s="4"/>
       <c r="D643"/>
       <c r="E643" s="3" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -12062,7 +12110,7 @@
       </c>
       <c r="C644" s="4"/>
       <c r="E644" s="3" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -12075,7 +12123,7 @@
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="E645" s="3" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -12087,7 +12135,7 @@
       </c>
       <c r="C646" s="4"/>
       <c r="E646" s="3" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -12099,7 +12147,7 @@
       </c>
       <c r="C647" s="4"/>
       <c r="E647" s="3" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -12112,7 +12160,7 @@
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="E648" s="3" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -12124,7 +12172,7 @@
       </c>
       <c r="C649"/>
       <c r="E649" s="3" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -12137,7 +12185,7 @@
       <c r="C650" s="4"/>
       <c r="D650"/>
       <c r="E650" s="3" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -12150,7 +12198,7 @@
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="E651" s="3" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -12162,7 +12210,7 @@
       </c>
       <c r="C652" s="4"/>
       <c r="E652" s="3" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -12175,7 +12223,7 @@
       <c r="C653" s="4"/>
       <c r="D653"/>
       <c r="E653" s="3" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -12188,7 +12236,7 @@
       <c r="C654" s="4"/>
       <c r="D654"/>
       <c r="E654" s="3" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -12199,7 +12247,7 @@
         <v>26</v>
       </c>
       <c r="C655" s="3" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="E655" s="3"/>
     </row>
@@ -12211,10 +12259,10 @@
         <v>26</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D656" s="3" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="E656" s="3"/>
     </row>
@@ -12226,10 +12274,10 @@
         <v>26</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="E657" s="3"/>
     </row>
@@ -12241,7 +12289,7 @@
         <v>26</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E658" s="3"/>
     </row>
@@ -12253,7 +12301,7 @@
         <v>26</v>
       </c>
       <c r="C659" s="3" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="E659" s="3"/>
     </row>
@@ -12265,7 +12313,7 @@
         <v>26</v>
       </c>
       <c r="C660" s="3" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="D660" s="4"/>
       <c r="E660" s="3"/>
@@ -12278,7 +12326,7 @@
         <v>26</v>
       </c>
       <c r="C661" s="3" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="E661" s="3"/>
     </row>
@@ -12290,7 +12338,7 @@
         <v>26</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="E662" s="3"/>
     </row>
@@ -12302,7 +12350,7 @@
         <v>26</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="E663" s="3"/>
     </row>
@@ -12315,7 +12363,7 @@
       </c>
       <c r="C664" s="4"/>
       <c r="E664" s="3" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -12328,7 +12376,7 @@
       <c r="C665" s="4"/>
       <c r="D665"/>
       <c r="E665" s="3" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -12340,7 +12388,7 @@
       </c>
       <c r="C666" s="4"/>
       <c r="E666" s="3" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -12352,7 +12400,7 @@
       </c>
       <c r="C667" s="4"/>
       <c r="E667" s="3" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -12364,7 +12412,7 @@
       </c>
       <c r="C668" s="4"/>
       <c r="E668" s="3" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -12377,7 +12425,7 @@
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="E669" s="3" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -12390,7 +12438,7 @@
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="3" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -12402,7 +12450,7 @@
       </c>
       <c r="C671" s="4"/>
       <c r="E671" s="3" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -12414,7 +12462,7 @@
       </c>
       <c r="C672" s="4"/>
       <c r="E672" s="3" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -12426,7 +12474,7 @@
       </c>
       <c r="C673" s="4"/>
       <c r="E673" s="3" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -12438,7 +12486,7 @@
       </c>
       <c r="C674" s="4"/>
       <c r="E674" s="3" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -12451,7 +12499,7 @@
       <c r="C675" s="4"/>
       <c r="D675"/>
       <c r="E675" s="3" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -12464,7 +12512,7 @@
       <c r="C676" s="4"/>
       <c r="D676"/>
       <c r="E676" s="3" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -12476,7 +12524,7 @@
       </c>
       <c r="C677" s="4"/>
       <c r="E677" s="3" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -12489,7 +12537,7 @@
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="E678" s="3" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -12501,7 +12549,7 @@
       </c>
       <c r="C679" s="4"/>
       <c r="E679" s="3" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -12513,7 +12561,7 @@
       </c>
       <c r="C680" s="4"/>
       <c r="E680" s="3" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -12525,7 +12573,7 @@
       </c>
       <c r="C681" s="4"/>
       <c r="E681" s="3" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -12537,7 +12585,7 @@
       </c>
       <c r="C682" s="3"/>
       <c r="E682" s="3" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -12549,7 +12597,7 @@
       </c>
       <c r="C683" s="3"/>
       <c r="E683" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -12561,7 +12609,7 @@
       </c>
       <c r="C684" s="3"/>
       <c r="E684" s="3" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -12574,7 +12622,7 @@
       <c r="C685" s="3"/>
       <c r="D685"/>
       <c r="E685" s="3" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -12587,7 +12635,7 @@
       <c r="C686" s="3"/>
       <c r="D686"/>
       <c r="E686" s="3" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -12599,7 +12647,7 @@
       </c>
       <c r="C687" s="3"/>
       <c r="E687" s="3" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -12611,7 +12659,7 @@
       </c>
       <c r="C688" s="3"/>
       <c r="E688" s="3" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -12623,7 +12671,7 @@
       </c>
       <c r="C689" s="3"/>
       <c r="E689" s="3" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -12635,7 +12683,7 @@
       </c>
       <c r="C690" s="3"/>
       <c r="E690" s="3" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -12648,7 +12696,7 @@
       <c r="C691" s="3"/>
       <c r="D691"/>
       <c r="E691" s="3" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="692" spans="1:5">
@@ -12660,7 +12708,7 @@
       </c>
       <c r="C692" s="3"/>
       <c r="E692" s="3" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -12672,7 +12720,7 @@
       </c>
       <c r="C693" s="3"/>
       <c r="E693" s="3" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -12684,7 +12732,7 @@
       </c>
       <c r="C694" s="3"/>
       <c r="E694" s="3" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -12696,7 +12744,7 @@
       </c>
       <c r="C695" s="3"/>
       <c r="E695" s="3" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -12708,7 +12756,7 @@
       </c>
       <c r="C696" s="3"/>
       <c r="E696" s="3" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -12721,7 +12769,7 @@
       <c r="C697" s="3"/>
       <c r="D697"/>
       <c r="E697" s="3" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -12733,7 +12781,7 @@
       </c>
       <c r="C698" s="3"/>
       <c r="E698" s="3" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -12745,7 +12793,7 @@
       </c>
       <c r="C699" s="3"/>
       <c r="E699" s="3" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -12757,7 +12805,7 @@
       </c>
       <c r="C700" s="3"/>
       <c r="E700" s="3" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -12769,7 +12817,7 @@
       </c>
       <c r="C701" s="3"/>
       <c r="E701" s="3" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -12782,7 +12830,7 @@
       <c r="C702" s="3"/>
       <c r="D702"/>
       <c r="E702" s="3" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -12794,7 +12842,7 @@
       </c>
       <c r="C703" s="3"/>
       <c r="E703" s="3" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="704" spans="1:5">
@@ -12805,10 +12853,10 @@
         <v>27</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D704" s="3" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="E704" s="4"/>
     </row>
@@ -12820,10 +12868,10 @@
         <v>27</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="D705" s="3" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="E705" s="4"/>
     </row>
@@ -12835,7 +12883,7 @@
         <v>27</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="E706" s="4"/>
     </row>
@@ -12847,7 +12895,7 @@
         <v>27</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="E707" s="4"/>
     </row>
@@ -12859,10 +12907,10 @@
         <v>27</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="E708" s="4"/>
     </row>
@@ -12874,10 +12922,10 @@
         <v>27</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D709" s="3" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="E709" s="4"/>
     </row>
@@ -12889,10 +12937,10 @@
         <v>27</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D710" s="3" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="E710" s="4"/>
     </row>
@@ -12904,7 +12952,7 @@
         <v>27</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E711" s="4"/>
     </row>
@@ -12916,10 +12964,10 @@
         <v>27</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="D712" s="3" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="E712" s="4"/>
     </row>
@@ -12931,10 +12979,10 @@
         <v>27</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="D713" s="3" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E713" s="4"/>
     </row>
@@ -12946,10 +12994,10 @@
         <v>27</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="D714" s="3" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="E714" s="4"/>
     </row>
@@ -12961,10 +13009,10 @@
         <v>27</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="D715" s="3" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="E715" s="4"/>
     </row>
@@ -12977,7 +13025,7 @@
       </c>
       <c r="C716" s="3"/>
       <c r="E716" s="3" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -12990,7 +13038,7 @@
       <c r="C717" s="3"/>
       <c r="D717" s="4"/>
       <c r="E717" s="3" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -13003,7 +13051,7 @@
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
       <c r="E718" s="3" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -13016,7 +13064,7 @@
       <c r="C719" s="3"/>
       <c r="D719" s="4"/>
       <c r="E719" s="3" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -13028,7 +13076,7 @@
       </c>
       <c r="C720" s="3"/>
       <c r="E720" s="3" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="721" spans="1:5">
@@ -13040,7 +13088,7 @@
       </c>
       <c r="C721" s="3"/>
       <c r="E721" s="3" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="722" spans="1:5">
@@ -13053,7 +13101,7 @@
       <c r="C722" s="3"/>
       <c r="D722"/>
       <c r="E722" s="3" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="723" spans="1:5">
@@ -13065,7 +13113,7 @@
       </c>
       <c r="C723" s="3"/>
       <c r="E723" s="3" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="724" spans="1:5">
@@ -13077,7 +13125,7 @@
       </c>
       <c r="C724" s="3"/>
       <c r="E724" s="3" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="725" spans="1:5">
@@ -13090,7 +13138,7 @@
       <c r="C725" s="3"/>
       <c r="D725"/>
       <c r="E725" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="726" spans="1:5">
@@ -13103,7 +13151,7 @@
       <c r="C726" s="3"/>
       <c r="D726"/>
       <c r="E726" s="3" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="727" spans="1:5">
@@ -13115,7 +13163,7 @@
       </c>
       <c r="C727" s="3"/>
       <c r="E727" s="3" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="728" spans="1:5">
@@ -13127,7 +13175,7 @@
       </c>
       <c r="C728" s="3"/>
       <c r="E728" s="3" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="729" spans="1:5">
@@ -13139,7 +13187,7 @@
       </c>
       <c r="C729" s="3"/>
       <c r="E729" s="3" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="730" spans="1:5">
@@ -13151,7 +13199,7 @@
       </c>
       <c r="C730" s="3"/>
       <c r="E730" s="3" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="731" spans="1:5">
@@ -13163,7 +13211,7 @@
       </c>
       <c r="C731" s="3"/>
       <c r="E731" s="3" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="732" spans="1:5">
@@ -13175,7 +13223,7 @@
       </c>
       <c r="C732" s="3"/>
       <c r="E732" s="3" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="733" spans="1:5">
@@ -13187,7 +13235,7 @@
       </c>
       <c r="C733" s="3"/>
       <c r="E733" s="3" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="734" spans="1:5">
@@ -13199,7 +13247,7 @@
       </c>
       <c r="C734" s="3"/>
       <c r="E734" s="3" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -13211,7 +13259,7 @@
       </c>
       <c r="C735" s="3"/>
       <c r="E735" s="3" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="736" spans="1:5">
@@ -13224,7 +13272,7 @@
       <c r="C736" s="3"/>
       <c r="D736"/>
       <c r="E736" s="3" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -13237,7 +13285,7 @@
       <c r="C737" s="3"/>
       <c r="D737"/>
       <c r="E737" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="738" spans="1:5">
@@ -13249,7 +13297,7 @@
       </c>
       <c r="C738" s="3"/>
       <c r="E738" s="3" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -13261,7 +13309,7 @@
       </c>
       <c r="C739" s="3"/>
       <c r="E739" s="3" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -13274,7 +13322,7 @@
       <c r="C740" s="3"/>
       <c r="D740" s="4"/>
       <c r="E740" s="3" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -13286,7 +13334,7 @@
       </c>
       <c r="C741" s="3"/>
       <c r="E741" s="3" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -13298,7 +13346,7 @@
       </c>
       <c r="C742" s="3"/>
       <c r="E742" s="3" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -13310,7 +13358,7 @@
       </c>
       <c r="C743" s="3"/>
       <c r="E743" s="3" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -13322,7 +13370,7 @@
       </c>
       <c r="C744" s="3"/>
       <c r="E744" s="3" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -13334,7 +13382,7 @@
       </c>
       <c r="C745" s="3"/>
       <c r="E745" s="3" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -13347,7 +13395,7 @@
       <c r="C746" s="3"/>
       <c r="D746"/>
       <c r="E746" s="3" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -13358,7 +13406,7 @@
         <v>29</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
@@ -13371,10 +13419,10 @@
         <v>29</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="D748" s="3" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="E748" s="4"/>
     </row>
@@ -13386,10 +13434,10 @@
         <v>29</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="D749" s="3" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="E749" s="4"/>
     </row>
@@ -13401,10 +13449,10 @@
         <v>29</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="D750" s="3" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E750" s="4"/>
     </row>
@@ -13416,10 +13464,10 @@
         <v>29</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="E751" s="4"/>
     </row>
@@ -13431,10 +13479,10 @@
         <v>29</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D752" s="3" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="E752" s="4"/>
     </row>
@@ -13446,7 +13494,7 @@
         <v>29</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="D753"/>
       <c r="E753" s="4"/>
@@ -13459,10 +13507,10 @@
         <v>29</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="D754" s="3" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="E754" s="4"/>
     </row>
@@ -13474,10 +13522,10 @@
         <v>29</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D755" s="3" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="E755" s="4"/>
     </row>
@@ -13489,10 +13537,10 @@
         <v>29</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="D756" s="3" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="E756" s="4"/>
     </row>
@@ -13504,10 +13552,10 @@
         <v>29</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="D757" s="3" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="E757" s="4"/>
     </row>
@@ -13519,10 +13567,10 @@
         <v>29</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="D758" s="3" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="E758" s="4"/>
     </row>
@@ -13534,10 +13582,10 @@
         <v>29</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="D759" s="3" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="E759" s="4"/>
     </row>
@@ -13549,10 +13597,10 @@
         <v>29</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D760" s="3" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="E760" s="4"/>
     </row>
@@ -13564,10 +13612,10 @@
         <v>29</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="D761" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="E761" s="4"/>
     </row>
@@ -13579,10 +13627,10 @@
         <v>29</v>
       </c>
       <c r="C762" s="3" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="D762" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="E762" s="4"/>
     </row>
@@ -13594,10 +13642,10 @@
         <v>29</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D763" s="3" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E763" s="4"/>
     </row>
@@ -13609,10 +13657,10 @@
         <v>29</v>
       </c>
       <c r="C764" s="3" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="D764" s="3" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E764" s="4"/>
     </row>
@@ -13624,7 +13672,7 @@
         <v>29</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="E765" s="4"/>
     </row>
@@ -13636,10 +13684,10 @@
         <v>29</v>
       </c>
       <c r="C766" s="3" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="D766" s="3" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="E766" s="4"/>
     </row>
@@ -13651,10 +13699,10 @@
         <v>29</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="D767" s="3" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="E767" s="4"/>
     </row>
@@ -13666,10 +13714,10 @@
         <v>29</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="D768" s="3" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="E768" s="4"/>
     </row>
@@ -13681,10 +13729,10 @@
         <v>29</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="D769" s="3" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="E769" s="4"/>
     </row>
@@ -13696,10 +13744,10 @@
         <v>29</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="D770" s="3" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="E770" s="4"/>
     </row>
@@ -13711,10 +13759,10 @@
         <v>29</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="D771" s="3" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="E771" s="4"/>
     </row>
@@ -13726,7 +13774,7 @@
         <v>29</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="E772" s="4"/>
     </row>
@@ -13738,10 +13786,10 @@
         <v>29</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="D773" s="3" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="E773" s="4"/>
     </row>
@@ -13753,7 +13801,7 @@
         <v>29</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
@@ -13767,7 +13815,7 @@
       </c>
       <c r="C775" s="3"/>
       <c r="E775" s="3" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -13780,7 +13828,7 @@
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
       <c r="E776" s="3" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -13792,7 +13840,7 @@
       </c>
       <c r="C777" s="3"/>
       <c r="E777" s="3" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -13804,7 +13852,7 @@
       </c>
       <c r="C778" s="3"/>
       <c r="E778" s="3" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -13816,7 +13864,7 @@
       </c>
       <c r="C779" s="3"/>
       <c r="E779" s="3" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
     </row>
     <row r="780" spans="1:5">
@@ -13828,7 +13876,7 @@
       </c>
       <c r="C780" s="3"/>
       <c r="E780" s="3" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -13840,7 +13888,7 @@
       </c>
       <c r="C781" s="3"/>
       <c r="E781" s="3" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -13852,7 +13900,7 @@
       </c>
       <c r="C782" s="3"/>
       <c r="E782" s="3" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -13864,7 +13912,7 @@
       </c>
       <c r="C783" s="3"/>
       <c r="E783" s="3" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -13876,7 +13924,7 @@
       </c>
       <c r="C784" s="3"/>
       <c r="E784" s="3" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -13888,7 +13936,7 @@
       </c>
       <c r="C785" s="3"/>
       <c r="E785" s="3" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="786" spans="1:5">
@@ -13900,7 +13948,7 @@
       </c>
       <c r="C786" s="3"/>
       <c r="E786" s="3" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
     </row>
     <row r="787" spans="1:5">
@@ -13913,7 +13961,7 @@
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
       <c r="E787" s="3" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
     </row>
     <row r="788" spans="1:5">
@@ -13925,7 +13973,7 @@
       </c>
       <c r="C788" s="3"/>
       <c r="E788" s="3" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -13937,7 +13985,7 @@
       </c>
       <c r="C789" s="3"/>
       <c r="E789" s="3" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
     </row>
     <row r="790" spans="1:5">
@@ -13949,7 +13997,7 @@
       </c>
       <c r="C790" s="3"/>
       <c r="E790" s="3" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="791" spans="1:5">
@@ -13962,7 +14010,7 @@
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
       <c r="E791" s="3" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
     </row>
     <row r="792" spans="1:5">
@@ -13974,7 +14022,7 @@
       </c>
       <c r="C792" s="3"/>
       <c r="E792" s="3" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
     </row>
     <row r="793" spans="1:5">
@@ -13986,7 +14034,7 @@
       </c>
       <c r="C793" s="3"/>
       <c r="E793" s="3" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="794" spans="1:5">
@@ -13998,7 +14046,7 @@
       </c>
       <c r="C794" s="3"/>
       <c r="E794" s="3" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -14010,7 +14058,7 @@
       </c>
       <c r="C795" s="3"/>
       <c r="E795" s="3" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="796" spans="1:5">
@@ -14023,7 +14071,7 @@
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
       <c r="E796" s="3" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="797" spans="1:5">
@@ -14035,7 +14083,7 @@
       </c>
       <c r="C797" s="3"/>
       <c r="E797" s="3" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
     </row>
     <row r="798" spans="1:5">
@@ -14048,7 +14096,7 @@
       <c r="C798" s="3"/>
       <c r="D798"/>
       <c r="E798" s="3" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
     </row>
     <row r="799" spans="1:5">
@@ -14060,7 +14108,7 @@
       </c>
       <c r="C799" s="3"/>
       <c r="E799" s="3" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
     </row>
     <row r="800" spans="1:5">
@@ -14072,7 +14120,7 @@
       </c>
       <c r="C800" s="3"/>
       <c r="E800" s="3" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="801" spans="1:5">
@@ -14085,7 +14133,7 @@
       <c r="C801" s="3"/>
       <c r="D801"/>
       <c r="E801" s="3" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="802" spans="1:5">
@@ -14098,7 +14146,7 @@
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
       <c r="E802" s="3" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -14111,7 +14159,7 @@
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
       <c r="E803" s="3" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
     </row>
     <row r="804" spans="1:5">
@@ -14124,7 +14172,7 @@
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
       <c r="E804" s="3" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="805" spans="1:5">
@@ -14136,7 +14184,7 @@
       </c>
       <c r="C805" s="3"/>
       <c r="E805" s="3" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
     </row>
     <row r="806" spans="1:5">
@@ -14148,7 +14196,7 @@
       </c>
       <c r="C806" s="3"/>
       <c r="E806" s="3" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
     </row>
     <row r="807" spans="1:5">
@@ -14160,7 +14208,7 @@
       </c>
       <c r="C807" s="3"/>
       <c r="E807" s="3" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
     </row>
     <row r="808" spans="1:5">
@@ -14173,7 +14221,7 @@
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
       <c r="E808" s="3" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
     </row>
     <row r="809" spans="1:5">
@@ -14185,7 +14233,7 @@
       </c>
       <c r="C809" s="3"/>
       <c r="E809" s="3" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="810" spans="1:5">
@@ -14197,7 +14245,7 @@
       </c>
       <c r="C810" s="3"/>
       <c r="E810" s="3" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="811" spans="1:5">
@@ -14209,7 +14257,7 @@
       </c>
       <c r="C811" s="3"/>
       <c r="E811" s="3" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
     </row>
     <row r="812" spans="1:5">
@@ -14222,7 +14270,7 @@
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
       <c r="E812" s="3" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="813" spans="1:5">
@@ -14235,7 +14283,7 @@
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
       <c r="E813" s="3" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="814" spans="1:5">
@@ -14247,7 +14295,7 @@
       </c>
       <c r="C814"/>
       <c r="E814" s="3" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
     </row>
     <row r="815" spans="1:5">
@@ -14259,7 +14307,7 @@
       </c>
       <c r="C815" s="3"/>
       <c r="E815" s="3" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="816" spans="1:5">
@@ -14271,7 +14319,7 @@
       </c>
       <c r="C816" s="3"/>
       <c r="E816" s="3" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="817" spans="1:5">
@@ -14283,7 +14331,7 @@
       </c>
       <c r="C817" s="3"/>
       <c r="E817" s="3" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
     </row>
     <row r="818" spans="1:5">
@@ -14296,7 +14344,7 @@
       <c r="C818" s="3"/>
       <c r="D818"/>
       <c r="E818" s="3" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
     </row>
     <row r="819" spans="1:5">
@@ -14309,7 +14357,7 @@
       <c r="C819" s="3"/>
       <c r="D819"/>
       <c r="E819" s="3" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
     </row>
     <row r="820" spans="1:5">
@@ -14322,7 +14370,7 @@
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
       <c r="E820" s="3" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="821" spans="1:5">
@@ -14334,7 +14382,7 @@
       </c>
       <c r="C821" s="3"/>
       <c r="E821" s="3" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="822" spans="1:5">
@@ -14347,7 +14395,7 @@
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
       <c r="E822" s="3" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="823" spans="1:5">
@@ -14359,7 +14407,7 @@
       </c>
       <c r="C823" s="3"/>
       <c r="E823" s="3" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="824" spans="1:5">
@@ -14371,7 +14419,7 @@
       </c>
       <c r="C824" s="3"/>
       <c r="E824" s="3" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="825" spans="1:5">
@@ -14383,7 +14431,7 @@
       </c>
       <c r="C825" s="3"/>
       <c r="E825" s="3" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
     </row>
     <row r="826" spans="1:5">
@@ -14395,7 +14443,7 @@
       </c>
       <c r="C826" s="3"/>
       <c r="E826" s="3" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
     </row>
     <row r="827" spans="1:5">
@@ -14408,7 +14456,7 @@
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
       <c r="E827" s="3" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
     </row>
     <row r="828" spans="1:5">
@@ -14420,7 +14468,7 @@
       </c>
       <c r="C828" s="3"/>
       <c r="E828" s="3" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="829" spans="1:5">
@@ -14432,7 +14480,7 @@
       </c>
       <c r="C829" s="3"/>
       <c r="E829" s="3" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row r="830" spans="1:5">
@@ -14444,7 +14492,7 @@
       </c>
       <c r="C830" s="3"/>
       <c r="E830" s="3" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="831" spans="1:5">
@@ -14456,7 +14504,7 @@
       </c>
       <c r="C831" s="3"/>
       <c r="E831" s="3" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
     </row>
     <row r="832" spans="1:5">
@@ -14468,7 +14516,7 @@
       </c>
       <c r="C832" s="3"/>
       <c r="E832" s="3" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
     </row>
     <row r="833" spans="1:5">
@@ -14480,7 +14528,7 @@
       </c>
       <c r="C833" s="3"/>
       <c r="E833" s="3" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
     </row>
     <row r="834" spans="1:5">
@@ -14493,7 +14541,7 @@
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
       <c r="E834" s="3" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="835" spans="1:5">
@@ -14506,7 +14554,7 @@
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
       <c r="E835" s="3" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="836" spans="1:5">
@@ -14519,7 +14567,7 @@
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
       <c r="E836" s="3" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
     </row>
     <row r="837" spans="1:5">
@@ -14532,7 +14580,7 @@
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
       <c r="E837" s="3" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
     </row>
     <row r="838" spans="1:5">
@@ -14544,7 +14592,7 @@
       </c>
       <c r="C838" s="3"/>
       <c r="E838" s="3" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row r="839" spans="1:5">
@@ -14555,7 +14603,7 @@
         <v>30</v>
       </c>
       <c r="C839" s="3" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="D839" s="3"/>
       <c r="E839" s="4"/>
@@ -14568,7 +14616,7 @@
         <v>30</v>
       </c>
       <c r="C840" s="3" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="E840" s="4"/>
     </row>
@@ -14580,7 +14628,7 @@
         <v>30</v>
       </c>
       <c r="C841" s="3" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="E841" s="4"/>
     </row>
@@ -14592,7 +14640,7 @@
         <v>30</v>
       </c>
       <c r="C842" s="3" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="E842" s="4"/>
     </row>
@@ -14604,7 +14652,7 @@
         <v>30</v>
       </c>
       <c r="C843" s="3" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="E843" s="4"/>
     </row>
@@ -14616,7 +14664,7 @@
         <v>30</v>
       </c>
       <c r="C844" s="3" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="E844" s="4"/>
     </row>
@@ -14628,7 +14676,7 @@
         <v>30</v>
       </c>
       <c r="C845" s="3" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="E845" s="4"/>
     </row>
@@ -14640,7 +14688,7 @@
         <v>30</v>
       </c>
       <c r="C846" s="3" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="E846" s="4"/>
     </row>
@@ -14652,7 +14700,7 @@
         <v>30</v>
       </c>
       <c r="C847" s="3" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="E847" s="4"/>
     </row>
@@ -14664,7 +14712,7 @@
         <v>30</v>
       </c>
       <c r="C848" s="3" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="E848" s="4"/>
     </row>
@@ -14676,7 +14724,7 @@
         <v>30</v>
       </c>
       <c r="C849" s="3" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="E849" s="4"/>
     </row>
@@ -14688,7 +14736,7 @@
         <v>30</v>
       </c>
       <c r="C850" s="3" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="E850" s="4"/>
     </row>
@@ -14700,7 +14748,7 @@
         <v>30</v>
       </c>
       <c r="C851" s="3" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="E851" s="4"/>
     </row>
@@ -14712,7 +14760,7 @@
         <v>30</v>
       </c>
       <c r="C852" s="3" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="E852" s="4"/>
     </row>
@@ -14724,7 +14772,7 @@
         <v>30</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E853" s="4"/>
     </row>
@@ -14736,7 +14784,7 @@
         <v>30</v>
       </c>
       <c r="C854" s="3" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="E854" s="4"/>
     </row>
@@ -14748,7 +14796,7 @@
         <v>30</v>
       </c>
       <c r="C855" s="3" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="E855" s="4"/>
     </row>
@@ -14761,7 +14809,7 @@
       </c>
       <c r="C856" s="3"/>
       <c r="E856" s="3" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="857" spans="1:5">
@@ -14773,7 +14821,7 @@
       </c>
       <c r="C857" s="3"/>
       <c r="E857" s="3" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="858" spans="1:5">
@@ -14786,7 +14834,7 @@
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
       <c r="E858" s="3" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="859" spans="1:5">
@@ -14799,7 +14847,7 @@
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
       <c r="E859" s="3" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
     </row>
     <row r="860" spans="1:5">
@@ -14812,7 +14860,7 @@
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
       <c r="E860" s="3" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="861" spans="1:5">
@@ -14824,7 +14872,7 @@
       </c>
       <c r="C861" s="3"/>
       <c r="E861" s="3" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
     </row>
     <row r="862" spans="1:5">
@@ -14837,7 +14885,7 @@
       <c r="C862" s="3"/>
       <c r="D862"/>
       <c r="E862" s="3" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="863" spans="1:5">
@@ -14849,7 +14897,7 @@
       </c>
       <c r="C863" s="3"/>
       <c r="E863" s="3" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="864" spans="1:5">
@@ -14861,7 +14909,7 @@
       </c>
       <c r="C864" s="3"/>
       <c r="E864" s="3" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="865" spans="1:5">
@@ -14874,7 +14922,7 @@
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
       <c r="E865" s="3" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
     </row>
     <row r="866" spans="1:5">
@@ -14886,7 +14934,7 @@
       </c>
       <c r="C866" s="3"/>
       <c r="E866" s="3" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
     </row>
     <row r="867" spans="1:5">
@@ -14899,7 +14947,7 @@
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
       <c r="E867" s="3" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
     </row>
     <row r="868" spans="1:5">
@@ -14912,7 +14960,7 @@
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
       <c r="E868" s="3" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="869" spans="1:5">
@@ -14925,7 +14973,7 @@
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
       <c r="E869" s="3" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
     </row>
     <row r="870" spans="1:5">
@@ -14938,7 +14986,7 @@
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
       <c r="E870" s="3" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="871" spans="1:5">
@@ -14950,7 +14998,7 @@
       </c>
       <c r="C871" s="3"/>
       <c r="E871" s="3" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="872" spans="1:5">
@@ -14963,7 +15011,7 @@
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
       <c r="E872" s="3" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="873" spans="1:5">
@@ -14976,7 +15024,7 @@
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
       <c r="E873" s="3" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
     </row>
     <row r="874" spans="1:5">
@@ -14988,7 +15036,7 @@
       </c>
       <c r="C874" s="3"/>
       <c r="E874" s="3" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="875" spans="1:5">
@@ -15001,7 +15049,7 @@
       <c r="C875" s="3"/>
       <c r="D875"/>
       <c r="E875" s="3" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
     </row>
     <row r="876" spans="1:5">
@@ -15013,7 +15061,7 @@
       </c>
       <c r="C876" s="3"/>
       <c r="E876" s="3" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="877" spans="1:5">
@@ -15025,7 +15073,7 @@
       </c>
       <c r="C877" s="3"/>
       <c r="E877" s="3" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
     </row>
     <row r="878" spans="1:5">
@@ -15038,7 +15086,7 @@
       <c r="C878" s="3"/>
       <c r="D878"/>
       <c r="E878" s="3" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
     </row>
     <row r="879" spans="1:5">
@@ -15050,7 +15098,7 @@
       </c>
       <c r="C879" s="3"/>
       <c r="E879" s="3" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
     <row r="880" spans="1:5">
@@ -15063,7 +15111,7 @@
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
       <c r="E880" s="3" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
     </row>
     <row r="881" spans="1:5">
@@ -15076,7 +15124,7 @@
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
       <c r="E881" s="3" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
     </row>
     <row r="882" spans="1:5">
@@ -15088,7 +15136,7 @@
       </c>
       <c r="C882" s="3"/>
       <c r="E882" s="3" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
     </row>
     <row r="883" spans="1:5">
@@ -15100,7 +15148,7 @@
       </c>
       <c r="C883" s="3"/>
       <c r="E883" s="3" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
     </row>
     <row r="884" spans="1:5">
@@ -15113,7 +15161,7 @@
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
       <c r="E884" s="3" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
     </row>
     <row r="885" spans="1:5">
@@ -15126,7 +15174,7 @@
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
       <c r="E885" s="3" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
     </row>
     <row r="886" spans="1:5">
@@ -15139,7 +15187,7 @@
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
       <c r="E886" s="3" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
     </row>
     <row r="887" spans="1:5">
@@ -15151,7 +15199,7 @@
       </c>
       <c r="C887" s="3"/>
       <c r="E887" s="3" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
     </row>
     <row r="888" spans="1:5">
@@ -15164,7 +15212,7 @@
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
       <c r="E888" s="3" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row r="889" spans="1:5">
@@ -15177,7 +15225,7 @@
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
       <c r="E889" s="3" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
     </row>
     <row r="890" spans="1:5">
@@ -15190,7 +15238,7 @@
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
       <c r="E890" s="3" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="891" spans="1:5">
@@ -15203,7 +15251,7 @@
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
       <c r="E891" s="3" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
     </row>
     <row r="892" spans="1:5">
@@ -15215,7 +15263,7 @@
       </c>
       <c r="C892" s="3"/>
       <c r="E892" s="3" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
     </row>
     <row r="893" spans="1:5">
@@ -15226,7 +15274,7 @@
         <v>31</v>
       </c>
       <c r="C893" s="3" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="D893" s="3"/>
       <c r="E893"/>
@@ -15239,7 +15287,7 @@
         <v>31</v>
       </c>
       <c r="C894" s="3" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="D894" s="3"/>
       <c r="E894"/>
@@ -15252,7 +15300,7 @@
         <v>31</v>
       </c>
       <c r="C895" s="3" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="D895" s="3"/>
       <c r="E895"/>
@@ -15265,10 +15313,10 @@
         <v>31</v>
       </c>
       <c r="C896" s="3" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="D896" s="3" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="E896"/>
     </row>
@@ -15280,10 +15328,10 @@
         <v>31</v>
       </c>
       <c r="C897" s="3" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="D897" s="3" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="E897"/>
     </row>
@@ -15295,10 +15343,10 @@
         <v>31</v>
       </c>
       <c r="C898" s="3" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="D898" s="3" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E898"/>
     </row>
@@ -15310,10 +15358,10 @@
         <v>31</v>
       </c>
       <c r="C899" s="3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D899" s="3" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="E899"/>
     </row>
@@ -15325,10 +15373,10 @@
         <v>31</v>
       </c>
       <c r="C900" s="3" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="D900" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E900"/>
     </row>
@@ -15340,10 +15388,10 @@
         <v>31</v>
       </c>
       <c r="C901" s="3" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="D901" s="3" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="E901"/>
     </row>
@@ -15355,10 +15403,10 @@
         <v>31</v>
       </c>
       <c r="C902" s="3" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E902"/>
     </row>
@@ -15370,7 +15418,7 @@
         <v>31</v>
       </c>
       <c r="C903" s="3" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="D903" s="3"/>
       <c r="E903"/>
@@ -15383,7 +15431,7 @@
         <v>31</v>
       </c>
       <c r="C904" s="3" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="D904" s="3"/>
       <c r="E904"/>
@@ -15396,10 +15444,10 @@
         <v>31</v>
       </c>
       <c r="C905" s="3" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="D905" s="3" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="E905"/>
     </row>
@@ -15411,7 +15459,7 @@
         <v>31</v>
       </c>
       <c r="C906" s="3" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="D906" s="3"/>
       <c r="E906"/>
@@ -15424,7 +15472,7 @@
         <v>31</v>
       </c>
       <c r="C907" s="3" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="D907" s="3"/>
       <c r="E907"/>
@@ -15437,7 +15485,7 @@
         <v>31</v>
       </c>
       <c r="C908" s="3" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="D908" s="3"/>
       <c r="E908"/>
@@ -15463,7 +15511,7 @@
         <v>31</v>
       </c>
       <c r="C910" s="3" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="E910"/>
     </row>
@@ -15475,7 +15523,7 @@
         <v>31</v>
       </c>
       <c r="C911" s="3" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="D911" s="3"/>
       <c r="E911"/>
@@ -15488,7 +15536,7 @@
         <v>31</v>
       </c>
       <c r="C912" s="3" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="D912" s="3"/>
       <c r="E912"/>
@@ -15503,7 +15551,7 @@
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
       <c r="E913" s="3" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
     </row>
     <row r="914" spans="1:5">
@@ -15516,7 +15564,7 @@
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
       <c r="E914" s="3" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
     </row>
     <row r="915" spans="1:5">
@@ -15529,7 +15577,7 @@
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
       <c r="E915" s="3" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
     </row>
     <row r="916" spans="1:5">
@@ -15542,7 +15590,7 @@
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
       <c r="E916" s="3" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
     </row>
     <row r="917" spans="1:5">
@@ -15554,7 +15602,7 @@
       </c>
       <c r="C917" s="3"/>
       <c r="E917" s="3" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
     </row>
     <row r="918" spans="1:5">
@@ -15567,7 +15615,7 @@
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
       <c r="E918" s="3" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
     </row>
     <row r="919" spans="1:5">
@@ -15579,7 +15627,7 @@
       </c>
       <c r="C919" s="3"/>
       <c r="E919" s="3" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
     </row>
     <row r="920" spans="1:5">
@@ -15592,7 +15640,7 @@
       <c r="C920" s="3"/>
       <c r="D920" s="4"/>
       <c r="E920" s="3" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="921" spans="1:5">
@@ -15604,7 +15652,7 @@
       </c>
       <c r="C921" s="3"/>
       <c r="E921" s="3" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
     </row>
     <row r="922" spans="1:5">
@@ -15616,7 +15664,7 @@
       </c>
       <c r="C922" s="3"/>
       <c r="E922" s="3" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="923" spans="1:5">
@@ -15629,7 +15677,7 @@
       <c r="C923" s="3"/>
       <c r="D923"/>
       <c r="E923" s="3" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
     </row>
     <row r="924" spans="1:5">
@@ -15641,7 +15689,7 @@
       </c>
       <c r="C924" s="3"/>
       <c r="E924" s="3" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="925" spans="1:5">
@@ -15653,7 +15701,7 @@
       </c>
       <c r="C925" s="3"/>
       <c r="E925" s="3" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
     </row>
     <row r="926" spans="1:5">
@@ -15666,7 +15714,7 @@
       <c r="C926" s="3"/>
       <c r="D926"/>
       <c r="E926" s="3" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
     </row>
     <row r="927" spans="1:5">
@@ -15678,7 +15726,7 @@
       </c>
       <c r="C927" s="3"/>
       <c r="E927" s="3" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
     </row>
     <row r="928" spans="1:5">
@@ -15691,7 +15739,7 @@
       <c r="C928" s="3"/>
       <c r="D928"/>
       <c r="E928" s="3" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
     </row>
     <row r="929" spans="1:5">
@@ -15703,7 +15751,7 @@
       </c>
       <c r="C929" s="3"/>
       <c r="E929" s="3" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
     </row>
     <row r="930" spans="1:5">
@@ -15715,7 +15763,7 @@
       </c>
       <c r="C930" s="3"/>
       <c r="E930" s="3" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
     </row>
     <row r="931" spans="1:5">
@@ -15727,7 +15775,7 @@
       </c>
       <c r="C931" s="3"/>
       <c r="E931" s="3" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
     </row>
     <row r="932" spans="1:5">
@@ -15739,7 +15787,7 @@
       </c>
       <c r="C932" s="3"/>
       <c r="E932" s="3" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="933" spans="1:5">
@@ -15752,7 +15800,7 @@
       <c r="C933" s="3"/>
       <c r="D933"/>
       <c r="E933" s="3" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
     </row>
     <row r="934" spans="1:5">
@@ -15764,7 +15812,7 @@
       </c>
       <c r="C934" s="3"/>
       <c r="E934" s="3" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
     </row>
     <row r="935" spans="1:5">
@@ -15776,7 +15824,7 @@
       </c>
       <c r="C935" s="3"/>
       <c r="E935" s="3" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="936" spans="1:5">
@@ -15788,7 +15836,7 @@
       </c>
       <c r="C936" s="3"/>
       <c r="E936" s="3" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
     </row>
     <row r="937" spans="1:5">
@@ -15801,7 +15849,7 @@
       <c r="C937" s="3"/>
       <c r="D937" s="4"/>
       <c r="E937" s="3" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
     </row>
     <row r="938" spans="1:5">
@@ -15814,7 +15862,7 @@
       <c r="C938" s="3"/>
       <c r="D938" s="4"/>
       <c r="E938" s="3" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
     </row>
     <row r="939" spans="1:5">
@@ -15827,7 +15875,7 @@
       <c r="C939" s="3"/>
       <c r="D939" s="4"/>
       <c r="E939" s="3" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
     </row>
     <row r="940" spans="1:5">
@@ -15840,7 +15888,7 @@
       <c r="C940" s="3"/>
       <c r="D940" s="3"/>
       <c r="E940" s="3" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
     </row>
     <row r="941" spans="1:5">
@@ -15853,7 +15901,7 @@
       <c r="C941" s="3"/>
       <c r="D941" s="3"/>
       <c r="E941" s="3" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
     </row>
     <row r="942" spans="1:5">
@@ -15866,7 +15914,7 @@
       <c r="C942" s="3"/>
       <c r="D942" s="3"/>
       <c r="E942" s="3" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
     </row>
     <row r="943" spans="1:5">
@@ -15879,7 +15927,7 @@
       <c r="C943" s="3"/>
       <c r="D943" s="3"/>
       <c r="E943" s="3" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
     </row>
     <row r="944" spans="1:5">
@@ -15892,7 +15940,7 @@
       <c r="C944" s="3"/>
       <c r="D944" s="3"/>
       <c r="E944" s="3" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
     </row>
     <row r="945" spans="1:5">
@@ -15905,7 +15953,7 @@
       <c r="C945" s="3"/>
       <c r="D945" s="3"/>
       <c r="E945" s="3" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
     </row>
     <row r="946" spans="1:5">
@@ -15918,7 +15966,7 @@
       <c r="C946" s="3"/>
       <c r="D946" s="3"/>
       <c r="E946" s="3" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
     </row>
     <row r="947" spans="1:5">
@@ -15931,7 +15979,7 @@
       <c r="C947" s="3"/>
       <c r="D947" s="4"/>
       <c r="E947" s="3" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
     </row>
     <row r="948" spans="1:5">
@@ -15944,7 +15992,7 @@
       <c r="C948" s="3"/>
       <c r="D948" s="4"/>
       <c r="E948" s="3" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row r="949" spans="1:5">
@@ -15957,7 +16005,7 @@
       <c r="C949" s="3"/>
       <c r="D949" s="3"/>
       <c r="E949" s="3" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="950" spans="1:5">
@@ -15970,7 +16018,7 @@
       <c r="C950" s="3"/>
       <c r="D950" s="4"/>
       <c r="E950" s="3" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="951" spans="1:5">
@@ -15983,7 +16031,7 @@
       <c r="C951" s="3"/>
       <c r="D951" s="4"/>
       <c r="E951" s="3" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
     </row>
     <row r="952" spans="1:5">
@@ -15996,7 +16044,7 @@
       <c r="C952" s="3"/>
       <c r="D952" s="4"/>
       <c r="E952" s="3" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
     </row>
     <row r="953" spans="1:5">
@@ -16009,7 +16057,7 @@
       <c r="C953" s="3"/>
       <c r="D953" s="4"/>
       <c r="E953" s="3" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
     </row>
     <row r="954" spans="1:5">
@@ -16021,7 +16069,7 @@
       </c>
       <c r="C954" s="3"/>
       <c r="E954" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
     </row>
     <row r="955" spans="1:5">
@@ -16034,7 +16082,7 @@
       <c r="C955" s="3"/>
       <c r="D955" s="4"/>
       <c r="E955" s="3" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
     </row>
     <row r="956" spans="1:5">
@@ -16047,7 +16095,7 @@
       <c r="C956" s="3"/>
       <c r="D956" s="4"/>
       <c r="E956" s="3" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
     </row>
     <row r="957" ht="34.5" spans="1:4">
@@ -16058,10 +16106,10 @@
         <v>32</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="D957" s="8" t="s">
-        <v>983</v>
+        <v>988</v>
+      </c>
+      <c r="D957" s="9" t="s">
+        <v>989</v>
       </c>
     </row>
   </sheetData>
